--- a/tiempos.xlsx
+++ b/tiempos.xlsx
@@ -33,9 +33,6 @@
     <t>Cartagena</t>
   </si>
   <si>
-    <t>Caldas</t>
-  </si>
-  <si>
     <t>Monteria</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Tiempo viaje</t>
+  </si>
+  <si>
+    <t>Manizales</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -424,34 +424,34 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -477,10 +477,9 @@
         <v>14.91</v>
       </c>
       <c r="H2" s="1">
-        <v>5.25</v>
+        <v>1.97</v>
       </c>
       <c r="I2" s="1">
-        <f>H2</f>
         <v>5.25</v>
       </c>
       <c r="J2" s="1">
@@ -530,10 +529,9 @@
         <v>12.22</v>
       </c>
       <c r="H3" s="1">
-        <v>12.03</v>
+        <v>16.72</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="0">H3</f>
         <v>12.03</v>
       </c>
       <c r="J3" s="1">
@@ -549,11 +547,11 @@
         <v>26</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="1">C3</f>
+        <f t="shared" ref="N3:N8" si="0">C3</f>
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O8" si="2">K3</f>
+        <f t="shared" ref="O3:O8" si="1">K3</f>
         <v>18.98</v>
       </c>
       <c r="P3" s="1">
@@ -562,7 +560,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>5.61</v>
@@ -583,10 +581,9 @@
         <v>11.5</v>
       </c>
       <c r="H4" s="1">
-        <v>8.17</v>
+        <v>5.83</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
         <v>8.17</v>
       </c>
       <c r="J4" s="1">
@@ -602,11 +599,11 @@
         <v>15.16</v>
       </c>
       <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>17.95</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="1"/>
-        <v>17.95</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="2"/>
         <v>8.68</v>
       </c>
       <c r="P4" s="1">
@@ -636,10 +633,9 @@
         <v>4.95</v>
       </c>
       <c r="H5" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.77</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="J5" s="1">
@@ -655,11 +651,11 @@
         <v>19.600000000000001</v>
       </c>
       <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.17</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>9.17</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="2"/>
         <v>14.08</v>
       </c>
       <c r="P5" s="1">
@@ -689,10 +685,9 @@
         <v>13.34</v>
       </c>
       <c r="H6" s="1">
-        <v>11.8</v>
+        <v>15.27</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
       <c r="J6" s="1">
@@ -708,11 +703,11 @@
         <v>26</v>
       </c>
       <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
         <v>19.47</v>
       </c>
       <c r="P6" s="1">
@@ -721,7 +716,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>14.91</v>
@@ -742,10 +737,9 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>11.38</v>
+        <v>13.45</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
         <v>11.38</v>
       </c>
       <c r="J7" s="1">
@@ -761,11 +755,11 @@
         <v>24</v>
       </c>
       <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>12.22</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>12.22</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="2"/>
         <v>17.149999999999999</v>
       </c>
       <c r="P7" s="1">
@@ -774,124 +768,109 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>5.25</v>
+        <v>1.97</v>
       </c>
       <c r="C8" s="1">
-        <v>12.03</v>
+        <v>16.72</v>
       </c>
       <c r="D8" s="1">
-        <v>8.17</v>
+        <v>5.83</v>
       </c>
       <c r="E8" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.77</v>
       </c>
       <c r="F8" s="1">
-        <v>11.8</v>
+        <v>15.27</v>
       </c>
       <c r="G8" s="1">
-        <v>11.38</v>
+        <v>13.45</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.42</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="M8" s="1">
-        <v>14.48</v>
-      </c>
-      <c r="N8" s="1">
+        <v>16.72</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>12.03</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="2"/>
-        <v>7.75</v>
+        <v>3.95</v>
       </c>
       <c r="P8" s="1">
-        <v>11.55</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <f>B8</f>
         <v>5.25</v>
       </c>
       <c r="C9" s="1">
-        <f>C8</f>
         <v>12.03</v>
       </c>
       <c r="D9" s="1">
         <v>8.17</v>
       </c>
       <c r="E9" s="1">
-        <f>E8</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:P9" si="3">F8</f>
         <v>11.8</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
         <v>11.38</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
         <v>7.42</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
         <v>4.08</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
         <v>14.48</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
         <v>12.03</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
         <v>11.55</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>14.7</v>
@@ -912,10 +891,9 @@
         <v>14.47</v>
       </c>
       <c r="H10" s="1">
-        <v>7.42</v>
+        <v>11.56</v>
       </c>
       <c r="I10" s="1">
-        <f>H10</f>
         <v>7.42</v>
       </c>
       <c r="J10" s="1">
@@ -944,7 +922,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>2.79</v>
@@ -965,10 +943,9 @@
         <v>17.149999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>7.75</v>
+        <v>3.95</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:I13" si="4">H11</f>
         <v>7.75</v>
       </c>
       <c r="J11" s="1">
@@ -984,11 +961,11 @@
         <v>7.27</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N13" si="5">C11</f>
+        <f t="shared" ref="N11:N13" si="2">C11</f>
         <v>18.98</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:O13" si="6">K11</f>
+        <f t="shared" ref="O11:O13" si="3">K11</f>
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -997,7 +974,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1018,10 +995,9 @@
         <v>14.52</v>
       </c>
       <c r="H12" s="1">
-        <v>4.08</v>
+        <v>1.17</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
         <v>4.08</v>
       </c>
       <c r="J12" s="1">
@@ -1037,11 +1013,11 @@
         <v>9.5</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16.170000000000002</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4.13</v>
       </c>
       <c r="P12" s="1">
@@ -1050,7 +1026,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>9.61</v>
@@ -1071,10 +1047,9 @@
         <v>24</v>
       </c>
       <c r="H13" s="1">
-        <v>14.48</v>
+        <v>7.34</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
         <v>14.48</v>
       </c>
       <c r="J13" s="1">
@@ -1090,11 +1065,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7.27</v>
       </c>
       <c r="P13" s="1">
@@ -1103,137 +1078,135 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <f>B3</f>
         <v>18.05</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:P14" si="7">C3</f>
+        <f t="shared" ref="C14:P14" si="4">C3</f>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>17.95</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>9.17</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.22</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+      <c r="I14" s="1">
         <v>12.03</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="7"/>
-        <v>12.03</v>
-      </c>
       <c r="J14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.12</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>18.98</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.170000000000002</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>18.98</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.58</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <f>B11</f>
         <v>2.79</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:P15" si="8">C11</f>
+        <f t="shared" ref="C15:P15" si="5">C11</f>
         <v>18.98</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8.68</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14.08</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>19.47</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17.149999999999999</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>3.95</v>
+      </c>
+      <c r="I15" s="1">
         <v>7.75</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="8"/>
-        <v>7.75</v>
-      </c>
       <c r="J15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14.52</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4.13</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7.27</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>18.98</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16.829999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>14.77</v>
@@ -1254,10 +1227,9 @@
         <v>9.6</v>
       </c>
       <c r="H16" s="1">
-        <v>11.55</v>
+        <v>13.32</v>
       </c>
       <c r="I16" s="1">
-        <f>H16</f>
         <v>11.55</v>
       </c>
       <c r="J16" s="1">
